--- a/data/correlation_example.xlsx
+++ b/data/correlation_example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d/Dropbox (Personal)/_git/psi2301_examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A91AE-BC42-134A-A14B-B39EC9E76F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33038213-DCBC-584D-BF7A-093A72C44C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{9AB73576-A3CB-9143-98BD-02E7599F5B46}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="table" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="17">
   <si>
     <t>sign</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>square_of_var_civ</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -3317,18 +3323,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39C1D82-BD50-0C4D-A79D-1667405410D5}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
